--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Rspo3-Sdc4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Rspo3-Sdc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Sdc4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.84911051206761</v>
+        <v>0.06937033333333333</v>
       </c>
       <c r="H2">
-        <v>3.84911051206761</v>
+        <v>0.208111</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01708561286819356</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01708561286819356</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.41016094309549</v>
+        <v>3.001642333333333</v>
       </c>
       <c r="N2">
-        <v>1.41016094309549</v>
+        <v>9.004927</v>
       </c>
       <c r="O2">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="P2">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="Q2">
-        <v>5.427865309776026</v>
+        <v>0.2082249292107778</v>
       </c>
       <c r="R2">
-        <v>5.427865309776026</v>
+        <v>1.874024362897</v>
       </c>
       <c r="S2">
-        <v>0.02558454452865254</v>
+        <v>0.0008832913292089773</v>
       </c>
       <c r="T2">
-        <v>0.02558454452865254</v>
+        <v>0.0008832913292089776</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.84911051206761</v>
+        <v>0.06937033333333333</v>
       </c>
       <c r="H3">
-        <v>3.84911051206761</v>
+        <v>0.208111</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01708561286819356</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01708561286819356</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.0058428024893</v>
+        <v>11.05428166666667</v>
       </c>
       <c r="N3">
-        <v>11.0058428024893</v>
+        <v>33.162845</v>
       </c>
       <c r="O3">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498087</v>
       </c>
       <c r="P3">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498088</v>
       </c>
       <c r="Q3">
-        <v>42.36270522522521</v>
+        <v>0.7668392039772223</v>
       </c>
       <c r="R3">
-        <v>42.36270522522521</v>
+        <v>6.901552835795001</v>
       </c>
       <c r="S3">
-        <v>0.1996789633370027</v>
+        <v>0.003252936247056893</v>
       </c>
       <c r="T3">
-        <v>0.1996789633370027</v>
+        <v>0.003252936247056895</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -658,49 +658,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.84911051206761</v>
+        <v>0.06937033333333333</v>
       </c>
       <c r="H4">
-        <v>3.84911051206761</v>
+        <v>0.208111</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.01708561286819356</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01708561286819356</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.795191259732</v>
+        <v>16.49405866666666</v>
       </c>
       <c r="N4">
-        <v>15.795191259732</v>
+        <v>49.482176</v>
       </c>
       <c r="O4">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="P4">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="Q4">
-        <v>60.79743671795288</v>
+        <v>1.144198347726222</v>
       </c>
       <c r="R4">
-        <v>60.79743671795288</v>
+        <v>10.297785129536</v>
       </c>
       <c r="S4">
-        <v>0.2865720938463349</v>
+        <v>0.004853695872403247</v>
       </c>
       <c r="T4">
-        <v>0.2865720938463349</v>
+        <v>0.004853695872403248</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -720,49 +720,297 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>3.84911051206761</v>
+        <v>0.06937033333333333</v>
       </c>
       <c r="H5">
-        <v>3.84911051206761</v>
+        <v>0.208111</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.01708561286819356</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.01708561286819356</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.9064930002769</v>
+        <v>27.51115433333333</v>
       </c>
       <c r="N5">
-        <v>26.9064930002769</v>
+        <v>82.533463</v>
       </c>
       <c r="O5">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="P5">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="Q5">
-        <v>103.5660650502394</v>
+        <v>1.908457946488111</v>
       </c>
       <c r="R5">
-        <v>103.5660650502394</v>
+        <v>17.176121518393</v>
       </c>
       <c r="S5">
-        <v>0.4881643982880098</v>
+        <v>0.008095689419524439</v>
       </c>
       <c r="T5">
-        <v>0.4881643982880098</v>
+        <v>0.008095689419524441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.990790333333333</v>
+      </c>
+      <c r="H6">
+        <v>11.972371</v>
+      </c>
+      <c r="I6">
+        <v>0.9829143871318063</v>
+      </c>
+      <c r="J6">
+        <v>0.9829143871318063</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.001642333333333</v>
+      </c>
+      <c r="N6">
+        <v>9.004927</v>
+      </c>
+      <c r="O6">
+        <v>0.05169795991651582</v>
+      </c>
+      <c r="P6">
+        <v>0.05169795991651582</v>
+      </c>
+      <c r="Q6">
+        <v>11.97892520799078</v>
+      </c>
+      <c r="R6">
+        <v>107.810326871917</v>
+      </c>
+      <c r="S6">
+        <v>0.05081466858730684</v>
+      </c>
+      <c r="T6">
+        <v>0.05081466858730684</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.990790333333333</v>
+      </c>
+      <c r="H7">
+        <v>11.972371</v>
+      </c>
+      <c r="I7">
+        <v>0.9829143871318063</v>
+      </c>
+      <c r="J7">
+        <v>0.9829143871318063</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>11.05428166666667</v>
+      </c>
+      <c r="N7">
+        <v>33.162845</v>
+      </c>
+      <c r="O7">
+        <v>0.1903903753498087</v>
+      </c>
+      <c r="P7">
+        <v>0.1903903753498088</v>
+      </c>
+      <c r="Q7">
+        <v>44.11532041727722</v>
+      </c>
+      <c r="R7">
+        <v>397.037883755495</v>
+      </c>
+      <c r="S7">
+        <v>0.1871374391027518</v>
+      </c>
+      <c r="T7">
+        <v>0.1871374391027519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.990790333333333</v>
+      </c>
+      <c r="H8">
+        <v>11.972371</v>
+      </c>
+      <c r="I8">
+        <v>0.9829143871318063</v>
+      </c>
+      <c r="J8">
+        <v>0.9829143871318063</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>16.49405866666666</v>
+      </c>
+      <c r="N8">
+        <v>49.482176</v>
+      </c>
+      <c r="O8">
+        <v>0.2840808761059341</v>
+      </c>
+      <c r="P8">
+        <v>0.2840808761059341</v>
+      </c>
+      <c r="Q8">
+        <v>65.82432988436621</v>
+      </c>
+      <c r="R8">
+        <v>592.4189689592959</v>
+      </c>
+      <c r="S8">
+        <v>0.2792271802335308</v>
+      </c>
+      <c r="T8">
+        <v>0.2792271802335309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.990790333333333</v>
+      </c>
+      <c r="H9">
+        <v>11.972371</v>
+      </c>
+      <c r="I9">
+        <v>0.9829143871318063</v>
+      </c>
+      <c r="J9">
+        <v>0.9829143871318063</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>27.51115433333333</v>
+      </c>
+      <c r="N9">
+        <v>82.533463</v>
+      </c>
+      <c r="O9">
+        <v>0.4738307886277414</v>
+      </c>
+      <c r="P9">
+        <v>0.4738307886277414</v>
+      </c>
+      <c r="Q9">
+        <v>109.7912487723081</v>
+      </c>
+      <c r="R9">
+        <v>988.1212389507729</v>
+      </c>
+      <c r="S9">
+        <v>0.4657350992082169</v>
+      </c>
+      <c r="T9">
+        <v>0.4657350992082169</v>
       </c>
     </row>
   </sheetData>
